--- a/project documents/Test Case/Swag Labs_SauceDemo_TestScripts.xlsx
+++ b/project documents/Test Case/Swag Labs_SauceDemo_TestScripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Se\seJava_Project\seJava_Project\project documents\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A676892D-858E-4F77-A664-F19088234B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ECC59C-0F59-4836-9F26-ACBAA499F812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC2FFD60-7633-4D21-9FD7-56B4E6DCC9CD}"/>
   </bookViews>
@@ -1744,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A608EA33-BE96-491B-BED2-77873CFEADEA}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="98" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/project documents/Test Case/Swag Labs_SauceDemo_TestScripts.xlsx
+++ b/project documents/Test Case/Swag Labs_SauceDemo_TestScripts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Se\seJava_Project\seJava_Project\project documents\Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Se\seJava_Project\seJava_Project\Project Documents\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ECC59C-0F59-4836-9F26-ACBAA499F812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FC96AA-704A-4C3C-8C93-A373A52DD11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC2FFD60-7633-4D21-9FD7-56B4E6DCC9CD}"/>
   </bookViews>
@@ -174,14 +174,6 @@
 Add to cart / remove button</t>
   </si>
   <si>
-    <t>1.Login as Standard user
-2.Add multiple items to cart
-3.Go to "Your Cart" and verify the products
-4.Navigate back to products page remove an item
-5.Go back to "Your Cart"  verify if that specific item is removed 
-6.Proceed to order the product</t>
-  </si>
-  <si>
     <t>User should be able to successfully make changes to the cart and order the desired products</t>
   </si>
   <si>
@@ -193,32 +185,6 @@
   </si>
   <si>
     <t>User should be able to remove all cart items from the products page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify if the use is able to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>edit the cart items from products page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and proceed to order the product</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1115,6 +1081,29 @@
   </si>
   <si>
     <t>User should be able to add a product to cart from Product details pag</t>
+  </si>
+  <si>
+    <t>1.Login as Standard user
+2.Add multiple items to cart
+3.Go to "Your Cart" and verify the products
+4.Navigate back to products page remove an item
+5.Go back to "Your Cart"  verify if that specific item is removed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify if the user is able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>edit the cart items from products page</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1744,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A608EA33-BE96-491B-BED2-77873CFEADEA}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="98" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="98" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1821,13 +1810,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>30</v>
@@ -1839,13 +1828,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>31</v>
@@ -1857,13 +1846,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>32</v>
@@ -1875,13 +1864,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>33</v>
@@ -1893,16 +1882,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" s="14"/>
     </row>
@@ -1911,16 +1900,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="14"/>
     </row>
@@ -1929,16 +1918,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15" s="14"/>
     </row>
@@ -1947,34 +1936,34 @@
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F17" s="14"/>
     </row>
@@ -1983,16 +1972,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F18" s="14"/>
     </row>
@@ -2001,16 +1990,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="F19" s="14"/>
     </row>
@@ -2019,16 +2008,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="F20" s="14"/>
     </row>
@@ -2037,16 +2026,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F21" s="14"/>
     </row>
@@ -2055,16 +2044,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>73</v>
-      </c>
       <c r="D22" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F22" s="14"/>
     </row>
@@ -2073,16 +2062,16 @@
         <v>15</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F23" s="14"/>
     </row>
@@ -2091,16 +2080,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="F24" s="14"/>
     </row>
@@ -2109,16 +2098,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="F25" s="14"/>
     </row>
@@ -2127,16 +2116,16 @@
         <v>18</v>
       </c>
       <c r="B26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="F26" s="14"/>
     </row>
@@ -2145,16 +2134,16 @@
         <v>19</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="F27" s="14"/>
     </row>
@@ -2163,16 +2152,16 @@
         <v>20</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="F28" s="14"/>
     </row>
@@ -2181,16 +2170,16 @@
         <v>21</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F29" s="14"/>
     </row>
@@ -2217,16 +2206,16 @@
         <v>22</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="F32" s="14"/>
     </row>
@@ -2235,16 +2224,16 @@
         <v>23</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>102</v>
-      </c>
       <c r="E33" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -2253,16 +2242,16 @@
         <v>24</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="F34" s="14"/>
     </row>
@@ -2271,16 +2260,16 @@
         <v>25</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>110</v>
-      </c>
       <c r="D35" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F35" s="14"/>
     </row>
@@ -2289,16 +2278,16 @@
         <v>26</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F36" s="14"/>
     </row>
@@ -2307,16 +2296,16 @@
         <v>27</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="F37" s="14"/>
     </row>
@@ -2325,16 +2314,16 @@
         <v>28</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F38" s="14"/>
     </row>
@@ -2343,16 +2332,16 @@
         <v>29</v>
       </c>
       <c r="B39" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F39" s="14"/>
     </row>
@@ -2361,19 +2350,19 @@
         <v>30</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2386,6 +2375,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/project documents/Test Case/Swag Labs_SauceDemo_TestScripts.xlsx
+++ b/project documents/Test Case/Swag Labs_SauceDemo_TestScripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Se\seJava_Project\seJava_Project\Project Documents\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FC96AA-704A-4C3C-8C93-A373A52DD11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7EDBEB-B47E-4F35-9AE7-B6813B7E30A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC2FFD60-7633-4D21-9FD7-56B4E6DCC9CD}"/>
   </bookViews>
@@ -521,59 +521,6 @@
 6.Click "Continue" button and verify "Checkout Overview" page is successfully displayed</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Verify if following information is displayed properly in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Checkout : Overview" page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Description of products
-Value of products
-Payment Information
-Shipping Information
-Price Total
-</t>
-    </r>
-  </si>
-  <si>
-    <t>1.Login as Standard user
-2.Add a product to cart
-3.Go to "Your Cart" and verify the product
-4.Click "Checkout" and navigate to "Your Information" page
-5.Provide personal information
-6.Verify the following information in "Checkout:Overview" page
-Description of products
-Value of products
-Payment Information
-Shipping Information
-Price Total</t>
-  </si>
-  <si>
-    <t>User should be able to verify the following information in the "Checkout : Overview" page
-Description of products
-Value of products
-Payment Information
-Shipping Information
-Price Total</t>
-  </si>
-  <si>
     <t>1.Login as Standard user
 2.Add a product to cart
 3.Go to "Your Cart" and verify the product
@@ -1103,6 +1050,56 @@
         <scheme val="minor"/>
       </rPr>
       <t>edit the cart items from products page</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Login as Standard user
+2.Add a product to cart
+3.Go to "Your Cart" and verify the product
+4.Click "Checkout" and navigate to "Your Information" page
+5.Provide personal information
+6.Verify the following information in "Checkout:Overview" page
+Description of products
+Value of products
+Payment Information
+Shipping Information</t>
+  </si>
+  <si>
+    <t>User should be able to verify the following information in the "Checkout : Overview" page
+Description of products
+Value of products
+Payment Information
+Shipping Information</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify if following information is displayed properly in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Checkout : Overview" page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Description of products
+Value of products
+Payment Information
+Shipping Information
+</t>
     </r>
   </si>
 </sst>
@@ -1733,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A608EA33-BE96-491B-BED2-77873CFEADEA}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="98" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1816,7 +1813,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>30</v>
@@ -1834,7 +1831,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>31</v>
@@ -1852,7 +1849,7 @@
         <v>51</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>32</v>
@@ -1870,7 +1867,7 @@
         <v>52</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>33</v>
@@ -1888,7 +1885,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>54</v>
@@ -1906,7 +1903,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>55</v>
@@ -1918,16 +1915,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F15" s="14"/>
     </row>
@@ -1942,7 +1939,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>34</v>
@@ -1954,13 +1951,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>39</v>
@@ -1978,7 +1975,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>41</v>
@@ -1996,7 +1993,7 @@
         <v>61</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>62</v>
@@ -2014,7 +2011,7 @@
         <v>64</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>65</v>
@@ -2032,7 +2029,7 @@
         <v>66</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>67</v>
@@ -2050,7 +2047,7 @@
         <v>71</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>70</v>
@@ -2062,16 +2059,16 @@
         <v>15</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F23" s="14"/>
     </row>
@@ -2080,34 +2077,34 @@
         <v>16</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>17</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="F25" s="14"/>
     </row>
@@ -2116,16 +2113,16 @@
         <v>18</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F26" s="14"/>
     </row>
@@ -2134,16 +2131,16 @@
         <v>19</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F27" s="14"/>
     </row>
@@ -2152,16 +2149,16 @@
         <v>20</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F28" s="14"/>
     </row>
@@ -2170,16 +2167,16 @@
         <v>21</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F29" s="14"/>
     </row>
@@ -2206,16 +2203,16 @@
         <v>22</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F32" s="14"/>
     </row>
@@ -2224,16 +2221,16 @@
         <v>23</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -2242,16 +2239,16 @@
         <v>24</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F34" s="14"/>
     </row>
@@ -2260,16 +2257,16 @@
         <v>25</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F35" s="14"/>
     </row>
@@ -2278,16 +2275,16 @@
         <v>26</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F36" s="14"/>
     </row>
@@ -2296,16 +2293,16 @@
         <v>27</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F37" s="14"/>
     </row>
@@ -2314,16 +2311,16 @@
         <v>28</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F38" s="14"/>
     </row>
@@ -2332,16 +2329,16 @@
         <v>29</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F39" s="14"/>
     </row>
@@ -2359,10 +2356,10 @@
         <v>35</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">

--- a/project documents/Test Case/Swag Labs_SauceDemo_TestScripts.xlsx
+++ b/project documents/Test Case/Swag Labs_SauceDemo_TestScripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Se\seJava_Project\seJava_Project\Project Documents\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7EDBEB-B47E-4F35-9AE7-B6813B7E30A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98409F9-4108-4DCA-A59A-DB04AC7A1B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC2FFD60-7633-4D21-9FD7-56B4E6DCC9CD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="150">
   <si>
     <t>S.No</t>
   </si>
@@ -727,13 +727,6 @@
     <t>error user;</t>
   </si>
   <si>
-    <t>1.Login as error user
-2.Add a product to cart
-3.Go to "Your Cart" and verify the product
-4.Click "Checkout" and navigate to "Your Information" page
-5.Verify if the user is able to provide information in "Last Name" field</t>
-  </si>
-  <si>
     <t>User should not be able to provide "last name" in "Your Information" page</t>
   </si>
   <si>
@@ -832,14 +825,6 @@
   </si>
   <si>
     <t>User should not be able to proceed further while clicking "Finish" button</t>
-  </si>
-  <si>
-    <t>1.Login as  error user
-2.Add multiple products to cart
-3.Go to "Your Cart" and verify the products
-4.Click "Checkout" and navigate to "Your Information" page
-5.Provide personal information and navigate to  "Checkout : Overview" page
-5.Click "Finish" button and verify if the user is able to proceed further</t>
   </si>
   <si>
     <t>1.Login as  problem_user
@@ -1101,6 +1086,117 @@
 Shipping Information
 </t>
     </r>
+  </si>
+  <si>
+    <t>User should not be able to login with the incorrect username, with following error message being displayed "Epic sadface: Username and password do not match any user in this service"</t>
+  </si>
+  <si>
+    <t>1.Provide incorrect username
+2.Provide a valid password
+3.Click "Login"</t>
+  </si>
+  <si>
+    <t>1.Provide valid username
+2.Provide incorrect password
+3.Click "Login"</t>
+  </si>
+  <si>
+    <t>incorrect username;</t>
+  </si>
+  <si>
+    <t>incorrect password;</t>
+  </si>
+  <si>
+    <t>User should not be able to login with the incorrect password, with following error message being displayed "Epic sadface: Username and password do not match any user in this service"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify if the user is able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>login with wrong username</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify if the user is able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>login with wrong password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"error_user" is able to add any one of the below products</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from cart in "Products" page
+1.Sauce Labs Bolt T-Shirt
+2.Sauce Labs Fleece Jacket
+3.Test.allTheThings() T-Shirt (Red)</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Login as error user
+2.Add following products to cart
+ 2.1.Sauce Labs Bolt T-Shirt
+ 2.2.Sauce Labs Fleece Jacket
+ 2.3.Test.allTheThings() T-Shirt (Red)</t>
+  </si>
+  <si>
+    <t>User should not be able to add following products in "Products" page,
+1.Sauce Labs Bolt T-Shirt
+2.Sauce Labs Fleece Jacket
+3.Test.allTheThings() T-Shirt (Red)</t>
+  </si>
+  <si>
+    <t>1.Login as error user
+2.Add a product to cart
+3.Go to "Your Cart"
+4.Click "Checkout" and navigate to "Your Information" page
+5.Verify if the user is able to provide information in "Last Name" field</t>
+  </si>
+  <si>
+    <t>1.Login as  error user
+2.Add multiple products to cart
+3.Go to "Your Cart"
+4.Click "Checkout" and navigate to "Your Information" page
+5.Provide personal information and navigate to  "Checkout : Overview" page
+5.Click "Finish" button and verify if the user is able to proceed further</t>
   </si>
 </sst>
 </file>
@@ -1728,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A608EA33-BE96-491B-BED2-77873CFEADEA}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1813,7 +1909,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>30</v>
@@ -1831,7 +1927,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>31</v>
@@ -1849,7 +1945,7 @@
         <v>51</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>32</v>
@@ -1867,7 +1963,7 @@
         <v>52</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>33</v>
@@ -1885,7 +1981,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>54</v>
@@ -1903,7 +1999,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>55</v>
@@ -1915,16 +2011,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F15" s="14"/>
     </row>
@@ -1939,7 +2035,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>34</v>
@@ -1951,13 +2047,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>39</v>
@@ -1975,7 +2071,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>41</v>
@@ -1993,7 +2089,7 @@
         <v>61</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>62</v>
@@ -2011,7 +2107,7 @@
         <v>64</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>65</v>
@@ -2029,7 +2125,7 @@
         <v>66</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>67</v>
@@ -2047,7 +2143,7 @@
         <v>71</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>70</v>
@@ -2065,7 +2161,7 @@
         <v>72</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>73</v>
@@ -2083,7 +2179,7 @@
         <v>85</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>86</v>
@@ -2095,16 +2191,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F25" s="14"/>
     </row>
@@ -2119,7 +2215,7 @@
         <v>76</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>77</v>
@@ -2137,7 +2233,7 @@
         <v>79</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>80</v>
@@ -2155,7 +2251,7 @@
         <v>88</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>89</v>
@@ -2173,7 +2269,7 @@
         <v>81</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>82</v>
@@ -2203,172 +2299,226 @@
         <v>22</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="F32" s="14"/>
     </row>
-    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>23</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="F33" s="14"/>
     </row>
-    <row r="34" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>24</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>25</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>26</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>27</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F37" s="14"/>
     </row>
-    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>28</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>29</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>30</v>
       </c>
       <c r="B40" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
+        <v>31</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="18">
+        <v>32</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
+        <v>33</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C43" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D43" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E43" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F43" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project documents/Test Case/Swag Labs_SauceDemo_TestScripts.xlsx
+++ b/project documents/Test Case/Swag Labs_SauceDemo_TestScripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Se\seJava_Project\seJava_Project\Project Documents\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98409F9-4108-4DCA-A59A-DB04AC7A1B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A9F5F7-F703-416C-AC42-C5EEBC29E3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC2FFD60-7633-4D21-9FD7-56B4E6DCC9CD}"/>
   </bookViews>
@@ -827,41 +827,10 @@
     <t>User should not be able to proceed further while clicking "Finish" button</t>
   </si>
   <si>
-    <t>1.Login as  problem_user
-2.Add multiple products to cart
-3.Go to "Your Cart" and verify the products
-4.Click "Checkout" and navigate to "Your Information" page
-5.Provide personal information and navigate to  "Checkout : Overview" page
-5.Click "Finish" button and verify if the user is able to proceed further</t>
-  </si>
-  <si>
     <t>problem user;</t>
   </si>
   <si>
-    <t>1.Login as  problem_user
-2.Sort the products by price (High to low)</t>
-  </si>
-  <si>
-    <t>User should be able to verify that sorting logic is not working for "problem_user"</t>
-  </si>
-  <si>
     <t>User should be able to order a product successfully and retrun back to products page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify if </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sorting is working for "probem_user"</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1197,6 +1166,33 @@
 4.Click "Checkout" and navigate to "Your Information" page
 5.Provide personal information and navigate to  "Checkout : Overview" page
 5.Click "Finish" button and verify if the user is able to proceed further</t>
+  </si>
+  <si>
+    <t>1.Login as  problem_user
+2.Verify whether correct product image is displayed for each product</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sorting is working for "error_user"</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Login as  error_user
+2.Sort the products by price (High to low)</t>
+  </si>
+  <si>
+    <t>User should be able to verify that sorting logic is not working for "error_user"</t>
   </si>
 </sst>
 </file>
@@ -1826,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A608EA33-BE96-491B-BED2-77873CFEADEA}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1909,7 +1905,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>30</v>
@@ -1927,7 +1923,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>31</v>
@@ -1945,7 +1941,7 @@
         <v>51</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>32</v>
@@ -1963,7 +1959,7 @@
         <v>52</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>33</v>
@@ -1981,7 +1977,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>54</v>
@@ -1999,7 +1995,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>55</v>
@@ -2011,16 +2007,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F15" s="14"/>
     </row>
@@ -2035,7 +2031,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>34</v>
@@ -2047,13 +2043,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>39</v>
@@ -2071,7 +2067,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>41</v>
@@ -2089,7 +2085,7 @@
         <v>61</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>62</v>
@@ -2107,7 +2103,7 @@
         <v>64</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>65</v>
@@ -2125,7 +2121,7 @@
         <v>66</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>67</v>
@@ -2143,7 +2139,7 @@
         <v>71</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>70</v>
@@ -2161,7 +2157,7 @@
         <v>72</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>73</v>
@@ -2179,7 +2175,7 @@
         <v>85</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>86</v>
@@ -2191,16 +2187,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F25" s="14"/>
     </row>
@@ -2215,7 +2211,7 @@
         <v>76</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>77</v>
@@ -2233,7 +2229,7 @@
         <v>79</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>80</v>
@@ -2251,7 +2247,7 @@
         <v>88</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>89</v>
@@ -2269,7 +2265,7 @@
         <v>81</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>82</v>
@@ -2299,16 +2295,16 @@
         <v>22</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F32" s="14"/>
     </row>
@@ -2317,16 +2313,16 @@
         <v>23</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -2371,16 +2367,16 @@
         <v>26</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F36" s="14"/>
     </row>
@@ -2392,7 +2388,7 @@
         <v>101</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>97</v>
@@ -2410,7 +2406,7 @@
         <v>102</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>97</v>
@@ -2420,39 +2416,39 @@
       </c>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>29</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>30</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F40" s="14"/>
     </row>
@@ -2461,16 +2457,16 @@
         <v>31</v>
       </c>
       <c r="B41" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F41" s="14"/>
     </row>
@@ -2479,16 +2475,16 @@
         <v>32</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F42" s="14"/>
     </row>

--- a/project documents/Test Case/Swag Labs_SauceDemo_TestScripts.xlsx
+++ b/project documents/Test Case/Swag Labs_SauceDemo_TestScripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Se\seJava_Project\seJava_Project\Project Documents\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A9F5F7-F703-416C-AC42-C5EEBC29E3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E410B68-C4C9-47A8-82EB-7BE2EA355C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC2FFD60-7633-4D21-9FD7-56B4E6DCC9CD}"/>
   </bookViews>
@@ -1823,7 +1823,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B40"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
